--- a/categories.xlsx
+++ b/categories.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Baby Care" sheetId="4" r:id="rId2"/>
+    <sheet name="Blood Pressure Monitor" sheetId="2" r:id="rId3"/>
+    <sheet name="Respiratory Care" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>KITCHEN &amp; HOUSEHOLD</t>
   </si>
@@ -62,19 +65,34 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>Beurer BM 95 – Upper Arm Blood Pressure Monitor with ECG</t>
+  </si>
+  <si>
+    <t>Fully automatic pulse and blood pressure measurement on the wrist</t>
+  </si>
+  <si>
+    <t>Beurer IH 18 Nebuliser Yearpack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -243,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +569,7 @@
   <dimension ref="E1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +601,9 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
@@ -590,7 +611,9 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.25">
@@ -680,4 +703,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>